--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1530293.833116209</v>
+        <v>-1532244.05894477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>220.1756710575599</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>202.3757332196184</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.2319179083268</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.43762523993615</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>184.776081358319</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>56.77792951655305</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>56.1601644090472</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>97.42399283237027</v>
+        <v>142.3766723716365</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>71.53164499646171</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>228.6438434528992</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.67129869336565</v>
       </c>
       <c r="U10" t="n">
-        <v>112.4704182164281</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>22.99942095102852</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.63541896917923</v>
       </c>
       <c r="I16" t="n">
-        <v>57.69520250663614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>221.0376341234118</v>
       </c>
       <c r="V19" t="n">
-        <v>178.5922027254894</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>43.66458612239315</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>147.4019814764075</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100.3445535712765</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>126.5513692271539</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373703</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
         <v>42.28735533463133</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898643</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.38930518072</v>
+        <v>1003.249026178924</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.38930518072</v>
+        <v>780.849358444015</v>
       </c>
       <c r="D2" t="n">
-        <v>792.1236065739693</v>
+        <v>780.849358444015</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1236065739693</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>1766.854116415815</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.340737411353</v>
+        <v>1393.388358154736</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.38930518072</v>
+        <v>1003.249026178924</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>393.339819218074</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>393.339819218074</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>393.339819218074</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>393.339819218074</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>393.339819218074</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>393.339819218074</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.339819218074</v>
+        <v>329.7728273507103</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.206655608311</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>940.2441386678993</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>940.2441386678993</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>940.2441386678993</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>529.2582338782918</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>111.2944257764786</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>111.2944257764786</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2464.244164535375</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2133.181277191804</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.806495672433</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>372.9958041606071</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2448.71741646728</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2448.71741646728</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2117.654529123709</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W8" t="n">
-        <v>1764.885873853595</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X8" t="n">
-        <v>1391.420115592515</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.280783616703</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4887,37 +4887,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U10" t="n">
-        <v>466.3758425937212</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5124,22 +5124,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.969903867171</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.3619233770512</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>268.3619233770512</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>670.8029673508211</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>450.0103882072909</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698953</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303.4081673726145</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C16" t="n">
-        <v>303.4081673726145</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="D16" t="n">
-        <v>303.4081673726145</v>
+        <v>480.6009656577486</v>
       </c>
       <c r="E16" t="n">
-        <v>155.4950737902213</v>
+        <v>480.6009656577486</v>
       </c>
       <c r="F16" t="n">
-        <v>155.4950737902213</v>
+        <v>333.7110181598382</v>
       </c>
       <c r="G16" t="n">
-        <v>155.4950737902213</v>
+        <v>165.5356964796588</v>
       </c>
       <c r="H16" t="n">
-        <v>155.4950737902213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>303.4081673726145</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y16" t="n">
-        <v>303.4081673726145</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5498,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.2185435662825</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.645933059507</v>
       </c>
       <c r="V19" t="n">
-        <v>983.6595875400524</v>
+        <v>1020.96144485362</v>
       </c>
       <c r="W19" t="n">
-        <v>983.6595875400524</v>
+        <v>731.5442748166591</v>
       </c>
       <c r="X19" t="n">
-        <v>983.6595875400524</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.8670083965222</v>
+        <v>503.5547239186418</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>488.2756279992598</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>735.0407559057238</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.3120936331045</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
         <v>710.3120936331045</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1119.950109361362</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.950109361362</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X22" t="n">
-        <v>891.9605584633442</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.9605584633442</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>452.0983189327497</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>698.8634468392138</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1006.183580119176</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.046207783208</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2410.070939158952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>517.9294177607308</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>348.9932348328239</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>348.9932348328239</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>348.9932348328239</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>348.9932348328239</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1260.011501233714</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1260.011501233714</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1260.011501233714</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.011501233714</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>970.5943311967533</v>
+        <v>920.3704617345006</v>
       </c>
       <c r="X25" t="n">
-        <v>742.6047802987359</v>
+        <v>920.3704617345006</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.6047802987359</v>
+        <v>699.5778825909705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256433</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.777852827703</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845914</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395486</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
         <v>398.9545963083206</v>
@@ -6379,16 +6379,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6397,37 +6397,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P28" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T28" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>462.7283310300511</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365149</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,52 +6698,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675025</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315621</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045197</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805465</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823799</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.777852827703</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341669</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141283</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.18950298082</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.490124716567</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,40 +7157,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,16 +7567,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0022427662466</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N18" t="n">
-        <v>308.125109627204</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>76.43196988338559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.9802687929762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>127.6461250100637</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735862</v>
       </c>
       <c r="M27" t="n">
-        <v>308.1251096272051</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711662</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>50.62661940943772</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445223</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599079</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>20.63789864135589</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.7176547498463</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>392.1113620226436</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>41.75994765618395</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.0972207134477</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>86.09069106634985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.36945759169993</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.6160520671838</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642729</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>81.2784093983569</v>
       </c>
       <c r="I16" t="n">
-        <v>52.72404295763586</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>65.19971827516557</v>
       </c>
       <c r="V19" t="n">
-        <v>73.54544059833864</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>208.4730572014349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>139.1210168601835</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>66.14901489210108</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>71.36944075644936</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770927</v>
+        <v>96832.57803770929</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,25 +26320,25 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="F2" t="n">
         <v>97757.26493442721</v>
       </c>
       <c r="G2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442724</v>
       </c>
       <c r="H2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442718</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442725</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330356</v>
@@ -26347,13 +26347,13 @@
         <v>102630.2212330356</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275973</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.4568627596</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002535</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002538</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706296.5066771948</v>
+        <v>-706412.4595411014</v>
       </c>
       <c r="C6" t="n">
         <v>-137003.8150815967</v>
@@ -26528,25 +26528,25 @@
         <v>-137003.8150815967</v>
       </c>
       <c r="E6" t="n">
-        <v>-534435.7671126246</v>
+        <v>-534533.2262385968</v>
       </c>
       <c r="F6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700676</v>
       </c>
       <c r="G6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700662</v>
       </c>
       <c r="H6" t="n">
-        <v>-9275.730635728498</v>
+        <v>-9373.189761700691</v>
       </c>
       <c r="I6" t="n">
-        <v>-9275.730635728512</v>
+        <v>-9373.189761700647</v>
       </c>
       <c r="J6" t="n">
         <v>-263478.0727460549</v>
       </c>
       <c r="K6" t="n">
-        <v>-32549.3414497495</v>
+        <v>-32549.34144974941</v>
       </c>
       <c r="L6" t="n">
         <v>-32549.34144974941</v>
@@ -26555,13 +26555,13 @@
         <v>-167350.3566835865</v>
       </c>
       <c r="N6" t="n">
-        <v>-32549.34144974938</v>
+        <v>-32549.34144974942</v>
       </c>
       <c r="O6" t="n">
-        <v>-87054.85355346197</v>
+        <v>-87054.853553462</v>
       </c>
       <c r="P6" t="n">
-        <v>-32549.34144974941</v>
+        <v>-32549.34144974948</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,22 +26753,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054540999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054540999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054540999</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>146.8652354977947</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.9153296813769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>85.80919585869168</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>95.15338672830819</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>195.0640030992421</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>188.8578814096074</v>
+        <v>143.9052018703412</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>144.9166753611961</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>99.10841501723573</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>209.3638067647186</v>
       </c>
       <c r="U10" t="n">
-        <v>173.8114560255497</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041486</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>522.1968161642595</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>641.3196830252168</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,7 +35981,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>227.0074084713248</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>316.5557073809155</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951379</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502046</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594832</v>
+        <v>429.2814066296107</v>
       </c>
       <c r="M27" t="n">
-        <v>618.5494866776711</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315245</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M28" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303342</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>201.2020579973768</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178375</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714616</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502078</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>269.89560359738</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178375</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178375</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714616</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.7306875349203</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>324.1236498972921</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
